--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_32_1.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_32_1.xlsx
@@ -518,1266 +518,1266 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_32_1_9</t>
+          <t>model_32_1_8</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9997323294503674</v>
+        <v>0.9999530923162986</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9993265757170011</v>
+        <v>0.9990408676907915</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9994178429909525</v>
+        <v>0.9998523577726103</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9971646906912387</v>
+        <v>0.9999631597139675</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9981404018039997</v>
+        <v>0.9999422343965589</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0002498587087028462</v>
+        <v>4.378626372587794e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0006286120082698459</v>
+        <v>0.0008953079096035843</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001713288021644828</v>
+        <v>5.633399207449108e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>0.001304497944233838</v>
+        <v>5.417898687415538e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0007379133731991604</v>
+        <v>5.525648947432324e-05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001034122639150897</v>
+        <v>0.0007841647287900677</v>
       </c>
       <c r="M2" t="n">
-        <v>0.015806919646245</v>
+        <v>0.006617118989853359</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000256963727647</v>
+        <v>1.000045031376353</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0164798529404202</v>
+        <v>0.006898823444576078</v>
       </c>
       <c r="P2" t="n">
-        <v>114.5892299301134</v>
+        <v>118.0723808066666</v>
       </c>
       <c r="Q2" t="n">
-        <v>174.3141453486552</v>
+        <v>177.7972962252085</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_32_1_10</t>
+          <t>model_32_1_7</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9997334119366813</v>
+        <v>0.9999469302016922</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9993263764419411</v>
+        <v>0.9990404792239618</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9994285527379303</v>
+        <v>0.9998424949824822</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9971366118708278</v>
+        <v>0.999966151733037</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9981280934237359</v>
+        <v>0.9999425683832164</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0002488482552444786</v>
+        <v>4.953832722537974e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0006287980227911606</v>
+        <v>0.0008956705263373529</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0001681769237319238</v>
+        <v>6.009721314429437e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>0.001317416733513464</v>
+        <v>4.977878863051631e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0007427975026947406</v>
+        <v>5.493700990300544e-05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001003870770320812</v>
+        <v>0.0008339073180995599</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01577492488871115</v>
+        <v>0.007038346909990991</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000255924540786</v>
+        <v>1.000050947006375</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01644649609981986</v>
+        <v>0.007337983909335971</v>
       </c>
       <c r="P3" t="n">
-        <v>114.5973345279165</v>
+        <v>117.8255278012281</v>
       </c>
       <c r="Q3" t="n">
-        <v>174.3222499464583</v>
+        <v>177.5504432197699</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_32_1_8</t>
+          <t>model_32_1_9</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9997308878530232</v>
+        <v>0.9999578200544694</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9993261927010808</v>
+        <v>0.9990403326815331</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9994061960677334</v>
+        <v>0.9998584746974727</v>
       </c>
       <c r="E4" t="n">
-        <v>0.997196813370676</v>
+        <v>0.9999599011047228</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9981547053045422</v>
+        <v>0.9999409503254282</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0002512043765447837</v>
+        <v>3.937312766711688e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0006289695368190069</v>
+        <v>0.000895807317262037</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0001747564915558783</v>
+        <v>5.400003381055993e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>0.001289718615163891</v>
+        <v>5.897124465804183e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0007322375533598848</v>
+        <v>5.648478553105865e-05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001067387359898056</v>
+        <v>0.0007392154099309067</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01584942827185838</v>
+        <v>0.00627480100617676</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000258347661098</v>
+        <v>1.000040492747709</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01652417124623093</v>
+        <v>0.006541932275638452</v>
       </c>
       <c r="P4" t="n">
-        <v>114.5784874019422</v>
+        <v>118.2848540265208</v>
       </c>
       <c r="Q4" t="n">
-        <v>174.3034028204841</v>
+        <v>178.0097694450626</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_32_1_11</t>
+          <t>model_32_1_10</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.999734249031573</v>
+        <v>0.9999613810870464</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9993257755328366</v>
+        <v>0.9990391025199271</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9994384948809011</v>
+        <v>0.9998616033364703</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9971124244139247</v>
+        <v>0.9999564834412852</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9981177574923983</v>
+        <v>0.9999389458201369</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0002480668639072718</v>
+        <v>3.604906006785719e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0006293589450632947</v>
+        <v>0.0008969556191234746</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0001652509511512271</v>
+        <v>5.280627828675057e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>0.00132854514469209</v>
+        <v>6.399741471444152e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0007468989381418961</v>
+        <v>5.840222288009145e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0009763193183188089</v>
+        <v>0.0006986649177875911</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01575013853612951</v>
+        <v>0.006004086947060077</v>
       </c>
       <c r="N5" t="n">
-        <v>1.00025512092969</v>
+        <v>1.000037074156436</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01642065454089399</v>
+        <v>0.006259693358569813</v>
       </c>
       <c r="P5" t="n">
-        <v>114.6036244712178</v>
+        <v>118.4612595351738</v>
       </c>
       <c r="Q5" t="n">
-        <v>174.3285398897596</v>
+        <v>178.1861749537156</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_32_1_7</t>
+          <t>model_32_1_6</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9997290012110971</v>
+        <v>0.9999390431971423</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9993250736014819</v>
+        <v>0.9990389695652535</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9993935102550769</v>
+        <v>0.9998279553267648</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9972336857194435</v>
+        <v>0.9999687673909694</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9981713770861222</v>
+        <v>0.9999416797144759</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0002529654739688805</v>
+        <v>5.690049977320593e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0006300141671716868</v>
+        <v>0.0008970797264752032</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0001784899260986891</v>
+        <v>6.564492713118661e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>0.001272754009920457</v>
+        <v>4.593208405662933e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>0.000725621968009573</v>
+        <v>5.57870783170492e-05</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001103803052912536</v>
+        <v>0.0008886601376701975</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01590488836706755</v>
+        <v>0.007543241993546669</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000260158837347</v>
+        <v>1.000058518530743</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01658199239251137</v>
+        <v>0.007864373421875522</v>
       </c>
       <c r="P6" t="n">
-        <v>114.5645150901506</v>
+        <v>117.5484128670203</v>
       </c>
       <c r="Q6" t="n">
-        <v>174.2894305086925</v>
+        <v>177.2733282855622</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_32_1_12</t>
+          <t>model_32_1_11</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9997348955449753</v>
+        <v>0.9999640104014648</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9993248628501512</v>
+        <v>0.9990373570789942</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9994474489633858</v>
+        <v>0.9998624811773076</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9970917061437123</v>
+        <v>0.9999529821820838</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9981090691433205</v>
+        <v>0.9999364298301378</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0002474633720248493</v>
+        <v>3.359471047184094e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0006302108942880546</v>
+        <v>0.0008985849116182799</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0001626157647620856</v>
+        <v>5.247133157372821e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>0.001338077417173449</v>
+        <v>6.914652447290402e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0007503465909677674</v>
+        <v>6.080892802331612e-05</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0009512052885258338</v>
+        <v>0.0006620176486292109</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01573096856601173</v>
+        <v>0.005796094415366345</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000254500276824</v>
+        <v>1.000034550014594</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01640066846546099</v>
+        <v>0.006042846154197984</v>
       </c>
       <c r="P7" t="n">
-        <v>114.6084959574524</v>
+        <v>118.6022838596425</v>
       </c>
       <c r="Q7" t="n">
-        <v>174.3334113759942</v>
+        <v>178.3271992781844</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_32_1_13</t>
+          <t>model_32_1_5</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9997353504600283</v>
+        <v>0.9999290790268751</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9993237488657486</v>
+        <v>0.9990360017324953</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9994555363066552</v>
+        <v>0.9998075663391512</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9970734783171059</v>
+        <v>0.9999708357894949</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9981014990441333</v>
+        <v>0.9999392018117241</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0002470387287913713</v>
+        <v>6.620161534120025e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0006312507498296553</v>
+        <v>0.0008998500680822169</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0001602356597156708</v>
+        <v>7.342449729172099e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>0.001346463861030728</v>
+        <v>4.289020385902529e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>0.000753350507318509</v>
+        <v>5.815735057537314e-05</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0009284636805698046</v>
+        <v>0.0009488639903624995</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01571746572419903</v>
+        <v>0.008136437509205134</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000254063558373</v>
+        <v>1.0000680841342</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01638659077971758</v>
+        <v>0.008482822498719567</v>
       </c>
       <c r="P8" t="n">
-        <v>114.6119308738028</v>
+        <v>117.2456113887891</v>
       </c>
       <c r="Q8" t="n">
-        <v>174.3368462923447</v>
+        <v>176.9705268073309</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_32_1_6</t>
+          <t>model_32_1_12</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9997267726176666</v>
+        <v>0.9999658789513818</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9993229145893344</v>
+        <v>0.9990352366512382</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9993804234386316</v>
+        <v>0.9998615488148366</v>
       </c>
       <c r="E9" t="n">
-        <v>0.997278152293172</v>
+        <v>0.9999494606286209</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9981923027731272</v>
+        <v>0.9999335370262246</v>
       </c>
       <c r="G9" t="n">
-        <v>0.000255045768112199</v>
+        <v>3.185050114415393e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0006320295102417741</v>
+        <v>0.00090056423785258</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0001823413760526734</v>
+        <v>5.282708142238706e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>0.001252295376417293</v>
+        <v>7.432547988808457e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0007173183762349834</v>
+        <v>6.357607974442663e-05</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001143266251162364</v>
+        <v>0.0006290943653883045</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0159701524135557</v>
+        <v>0.005643624823121566</v>
       </c>
       <c r="N9" t="n">
-        <v>1.00026229828704</v>
+        <v>1.000032756206674</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01665003486457373</v>
+        <v>0.005883885615755778</v>
       </c>
       <c r="P9" t="n">
-        <v>114.548135092236</v>
+        <v>118.7089148831191</v>
       </c>
       <c r="Q9" t="n">
-        <v>174.2730505107779</v>
+        <v>178.4338303016609</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_32_1_14</t>
+          <t>model_32_1_13</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9997356800700137</v>
+        <v>0.9999671524084953</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9993225188828995</v>
+        <v>0.9990328760052841</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9994628904818563</v>
+        <v>0.9998593276914922</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9970576184204497</v>
+        <v>0.9999459867336054</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9980950335924342</v>
+        <v>0.9999304234052252</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0002467310523382681</v>
+        <v>3.066178482701598e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0006323988848292957</v>
+        <v>0.0009027677972302543</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0001580713260246981</v>
+        <v>5.367456758599532e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>0.001353760843592698</v>
+        <v>7.943434664029074e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0007559160848086979</v>
+        <v>6.655445711314302e-05</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0009078563156550279</v>
+        <v>0.00059945224026912</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01570767495010857</v>
+        <v>0.005537308446078833</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000253747132787</v>
+        <v>1.000031533687844</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01637638319210439</v>
+        <v>0.005773043130437095</v>
       </c>
       <c r="P10" t="n">
-        <v>114.6144233430035</v>
+        <v>118.7849869453578</v>
       </c>
       <c r="Q10" t="n">
-        <v>174.3393387615453</v>
+        <v>178.5099023638996</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_32_1_15</t>
+          <t>model_32_1_4</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9997358946685124</v>
+        <v>0.999916696847582</v>
       </c>
       <c r="C11" t="n">
-        <v>0.999321223481102</v>
+        <v>0.9990314007318658</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9994695453889166</v>
+        <v>0.9997801948869149</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9970437400342916</v>
+        <v>0.9999722326310612</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9980894556637927</v>
+        <v>0.9999348165722459</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0002465307340594903</v>
+        <v>7.775983619641921e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0006336080855456861</v>
+        <v>0.0009041449002091938</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0001561127869408219</v>
+        <v>8.386827886155329e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>0.001360146152651014</v>
+        <v>4.083594562606532e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0007581294813092175</v>
+        <v>6.23521122438093e-05</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0008901862655941995</v>
+        <v>0.001014735681111699</v>
       </c>
       <c r="M11" t="n">
-        <v>0.01570129720945026</v>
+        <v>0.008818153786162906</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000253541118228</v>
+        <v>1.000079971026321</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01636973393782251</v>
+        <v>0.009193560848934669</v>
       </c>
       <c r="P11" t="n">
-        <v>114.6160477809415</v>
+        <v>116.9237710086837</v>
       </c>
       <c r="Q11" t="n">
-        <v>174.3409631994833</v>
+        <v>176.6486864272255</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_32_1_16</t>
+          <t>model_32_1_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9997360309737386</v>
+        <v>0.9999679773952991</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9993199121619689</v>
+        <v>0.9990303938625033</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9994755697286335</v>
+        <v>0.9998563003371765</v>
       </c>
       <c r="E12" t="n">
-        <v>0.997031519960724</v>
+        <v>0.9999426135440006</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9980846053359563</v>
+        <v>0.9999272275061678</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0002464034991138614</v>
+        <v>2.989169585845051e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0006348321443961159</v>
+        <v>0.0009050847685627046</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0001543398238200964</v>
+        <v>5.482967718467135e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>0.001365768488386365</v>
+        <v>8.439511147135808e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0007600541561032308</v>
+        <v>6.961153869981022e-05</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0008747510403842647</v>
+        <v>0.0005726850455977641</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01569724495298017</v>
+        <v>0.005467329865523985</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000253410265211</v>
+        <v>1.000030741700513</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01636550916840517</v>
+        <v>0.005700085416832396</v>
       </c>
       <c r="P12" t="n">
-        <v>114.6170802509133</v>
+        <v>118.835859693257</v>
       </c>
       <c r="Q12" t="n">
-        <v>174.3419956694551</v>
+        <v>178.5607751117988</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_32_1_5</t>
+          <t>model_32_1_15</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9997238728349378</v>
+        <v>0.999968430332652</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9993194514549137</v>
+        <v>0.999027832399232</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9993664833688665</v>
+        <v>0.9998525025274306</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9973288054694065</v>
+        <v>0.99993934063715</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9982164986155067</v>
+        <v>0.9999239493309366</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0002577525880038407</v>
+        <v>2.94688987210658e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0006352621942094058</v>
+        <v>0.0009074757820912549</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0001864439384505064</v>
+        <v>5.627875979409223e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>0.00122899034791031</v>
+        <v>8.920839595968839e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0007077171431804086</v>
+        <v>7.27473227021586e-05</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001186244387694927</v>
+        <v>0.0005486115134969219</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0160546749579006</v>
+        <v>0.005428526385775959</v>
       </c>
       <c r="N13" t="n">
-        <v>1.00026508207846</v>
+        <v>1.000030306880654</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01673815570861718</v>
+        <v>0.00565962999261722</v>
       </c>
       <c r="P13" t="n">
-        <v>114.5270207887311</v>
+        <v>118.8643502628102</v>
       </c>
       <c r="Q13" t="n">
-        <v>174.251936207273</v>
+        <v>178.589265681352</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_32_1_17</t>
+          <t>model_32_1_16</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9997361048608494</v>
+        <v>0.9999686225929921</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9993186138083374</v>
+        <v>0.99902528297923</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9994810278728734</v>
+        <v>0.9998484293420101</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9970207636860161</v>
+        <v>0.9999362222105933</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9980803937376931</v>
+        <v>0.9999207437094633</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0002463345287392056</v>
+        <v>2.928943213281283e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0006360441005200076</v>
+        <v>0.0009098555537564435</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0001527334920227675</v>
+        <v>5.783291404419139e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>0.001370717344654259</v>
+        <v>9.379449475740454e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0007617253744813087</v>
+        <v>7.581370440079796e-05</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0008607787855462189</v>
+        <v>0.0005299857652156196</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01569504790496689</v>
+        <v>0.005411971187359818</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000253339333585</v>
+        <v>1.000030122310728</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01636321858750945</v>
+        <v>0.005642370005130517</v>
       </c>
       <c r="P14" t="n">
-        <v>114.6176401457962</v>
+        <v>118.8765675701245</v>
       </c>
       <c r="Q14" t="n">
-        <v>174.342555564338</v>
+        <v>178.6014829886663</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_32_1_18</t>
+          <t>model_32_1_3</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9997361301326718</v>
+        <v>0.9999014714691338</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9993173481768511</v>
+        <v>0.9990247875595654</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9994859047968817</v>
+        <v>0.9997443152260852</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9970113601147566</v>
+        <v>0.9999728689014519</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9980767505893489</v>
+        <v>0.9999281518139486</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0002463109386023566</v>
+        <v>9.19720586609816e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0006372255119575817</v>
+        <v>0.0009103180062670297</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0001512982133340291</v>
+        <v>9.755843082251113e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0013750438353615</v>
+        <v>3.990021768088018e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0007631710243477645</v>
+        <v>6.872737926731274e-05</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0008481514034825438</v>
+        <v>0.001086898462617324</v>
       </c>
       <c r="M15" t="n">
-        <v>0.01569429637168728</v>
+        <v>0.009590206393033551</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000253315072635</v>
+        <v>1.000094587389632</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01636243505990224</v>
+        <v>0.009998481333649016</v>
       </c>
       <c r="P15" t="n">
-        <v>114.6178316842427</v>
+        <v>116.5880514745025</v>
       </c>
       <c r="Q15" t="n">
-        <v>174.3427471027845</v>
+        <v>176.3129668930443</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_32_1_19</t>
+          <t>model_32_1_17</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9997361237721331</v>
+        <v>0.9999685854002531</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9993161144473397</v>
+        <v>0.9990227431295337</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9994902850615498</v>
+        <v>0.9998439527380422</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9970030842119382</v>
+        <v>0.9999332261184375</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9980735792360389</v>
+        <v>0.9999175520391862</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0002463168758860864</v>
+        <v>2.932414992215928e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0006383771443020724</v>
+        <v>0.0009122263919615207</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0001500091014843112</v>
+        <v>5.954099564736812e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>0.001378851496903024</v>
+        <v>9.820068306548066e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0007644294596504285</v>
+        <v>7.886674088902824e-05</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0008367463108455267</v>
+        <v>0.0005155810016005885</v>
       </c>
       <c r="M16" t="n">
-        <v>0.01569448552473404</v>
+        <v>0.005415177736894633</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000253321178752</v>
+        <v>1.000030158015757</v>
       </c>
       <c r="O16" t="n">
-        <v>0.0163626322655858</v>
+        <v>0.005645713064117503</v>
       </c>
       <c r="P16" t="n">
-        <v>114.6177834751602</v>
+        <v>118.8741983040131</v>
       </c>
       <c r="Q16" t="n">
-        <v>174.342698893702</v>
+        <v>178.599113722555</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_32_1_20</t>
+          <t>model_32_1_18</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9997360947067339</v>
+        <v>0.9999684076372175</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9993149392005293</v>
+        <v>0.9990203046204205</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9994942347508661</v>
+        <v>0.9998395088438997</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9969958011606224</v>
+        <v>0.9999304176097029</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9980708125874904</v>
+        <v>0.9999145034707485</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0002463440071604337</v>
+        <v>2.94900839130516e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0006394741856121887</v>
+        <v>0.0009145026331805143</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0001488467079565279</v>
+        <v>6.123659657281881e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>0.001382202357227119</v>
+        <v>0.0001023310027304558</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0007655273027044779</v>
+        <v>8.178289132722523e-05</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0008264408925211786</v>
+        <v>0.0005025382300338554</v>
       </c>
       <c r="M17" t="n">
-        <v>0.01569534985785388</v>
+        <v>0.005430477319080856</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000253349081536</v>
+        <v>1.000030328668271</v>
       </c>
       <c r="O17" t="n">
-        <v>0.01636353339515596</v>
+        <v>0.005661663981191895</v>
       </c>
       <c r="P17" t="n">
-        <v>114.6175631915915</v>
+        <v>118.8629129793327</v>
       </c>
       <c r="Q17" t="n">
-        <v>174.3424786101333</v>
+        <v>178.5878283978745</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_32_1_4</t>
+          <t>model_32_1_19</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9997202897505399</v>
+        <v>0.9999681237841694</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9993142488847938</v>
+        <v>0.9990179619649981</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9993521152351744</v>
+        <v>0.9998350804788084</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9973878592857879</v>
+        <v>0.9999277882598318</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9982453842402109</v>
+        <v>0.9999115981065325</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0002610972400099712</v>
+        <v>2.97550482736661e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0006401185650498921</v>
+        <v>0.0009166893991864949</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0001906724800579121</v>
+        <v>6.292627227311581e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>0.001201820267443049</v>
+        <v>0.000106197843287436</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0006962549419326998</v>
+        <v>8.456205778027591e-05</v>
       </c>
       <c r="L18" t="n">
-        <v>0.00123271369794264</v>
+        <v>0.0004907923240833016</v>
       </c>
       <c r="M18" t="n">
-        <v>0.01615850364390129</v>
+        <v>0.005454818812175717</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000268521839482</v>
+        <v>1.000030601167197</v>
       </c>
       <c r="O18" t="n">
-        <v>0.01684640459673592</v>
+        <v>0.005687041742041642</v>
       </c>
       <c r="P18" t="n">
-        <v>114.5012353058789</v>
+        <v>118.8450235009944</v>
       </c>
       <c r="Q18" t="n">
-        <v>174.2261507244207</v>
+        <v>178.5699389195362</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_32_1_21</t>
+          <t>model_32_1_2</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9997360350336024</v>
+        <v>0.9998830762028463</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9993138387994129</v>
+        <v>0.9990160148787958</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9994977910273323</v>
+        <v>0.9996987534236066</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9969892048605042</v>
+        <v>0.9999726911164057</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9980683212560817</v>
+        <v>0.999918926124941</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0002463997094092483</v>
+        <v>0.0001091432322814592</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0006405013617523579</v>
+        <v>0.0009185069186892236</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0001478000958267167</v>
+        <v>0.0001149428760798442</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0013852372500753</v>
+        <v>4.0161676391453e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0007665158962445177</v>
+        <v>7.755234009461913e-05</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0008171469376617216</v>
+        <v>0.001172444076589008</v>
       </c>
       <c r="M19" t="n">
-        <v>0.01569712424010361</v>
+        <v>0.01044716383912204</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000253406367742</v>
+        <v>1.000112246845267</v>
       </c>
       <c r="O19" t="n">
-        <v>0.01636538331653154</v>
+        <v>0.01089192123236396</v>
       </c>
       <c r="P19" t="n">
-        <v>114.6171110113024</v>
+        <v>116.2456989614504</v>
       </c>
       <c r="Q19" t="n">
-        <v>174.3420264298442</v>
+        <v>175.9706143799922</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_32_1_22</t>
+          <t>model_32_1_20</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9997359737017626</v>
+        <v>0.9999677728435067</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9993127965605807</v>
+        <v>0.999015752811064</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9995009819579118</v>
+        <v>0.9998308220393075</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9969835287000588</v>
+        <v>0.9999253414333326</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9980662069015105</v>
+        <v>0.9999088684898286</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0002464569599895744</v>
+        <v>3.008263597780482e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0006414742459532039</v>
+        <v>0.0009187515474133954</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0001468610049878596</v>
+        <v>6.455111159811535e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>0.001387848795704323</v>
+        <v>0.0001097962567380791</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0007673549003460912</v>
+        <v>8.717311051202806e-05</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0008087589746746075</v>
+        <v>0.0004801729419627506</v>
       </c>
       <c r="M20" t="n">
-        <v>0.01569894773510551</v>
+        <v>0.005484763985606383</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000253465246308</v>
+        <v>1.000030938070234</v>
       </c>
       <c r="O20" t="n">
-        <v>0.01636728444149083</v>
+        <v>0.005718261743500304</v>
       </c>
       <c r="P20" t="n">
-        <v>114.6166463684629</v>
+        <v>118.8231248609625</v>
       </c>
       <c r="Q20" t="n">
-        <v>174.3415617870047</v>
+        <v>178.5480402795044</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_32_1_23</t>
+          <t>model_32_1_21</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9997358929734803</v>
+        <v>0.9999673575920346</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9993118294908171</v>
+        <v>0.9990136411184178</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9995038473123755</v>
+        <v>0.9998265850141059</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9969783819095287</v>
+        <v>0.9999230444859357</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9980642857035752</v>
+        <v>0.9999062571585512</v>
       </c>
       <c r="G21" t="n">
-        <v>0.000246532316297522</v>
+        <v>3.047025499963803e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0006423769631281133</v>
+        <v>0.0009207227198059929</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0001460177311967387</v>
+        <v>6.616778013764469e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>0.00139021678343858</v>
+        <v>0.0001131742512181925</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0007681172573176595</v>
+        <v>8.967101567791859e-05</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0008012012795622311</v>
+        <v>0.0004707507071895533</v>
       </c>
       <c r="M21" t="n">
-        <v>0.01570134759495254</v>
+        <v>0.005519986865893617</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000253542745459</v>
+        <v>1.000031336711647</v>
       </c>
       <c r="O21" t="n">
-        <v>0.01636978646833994</v>
+        <v>0.005754984134722779</v>
       </c>
       <c r="P21" t="n">
-        <v>114.616034944952</v>
+        <v>118.7975191922523</v>
       </c>
       <c r="Q21" t="n">
-        <v>174.3409503634938</v>
+        <v>178.5224346107941</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_32_1_24</t>
+          <t>model_32_1_22</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9997358225944236</v>
+        <v>0.9999669203566049</v>
       </c>
       <c r="C22" t="n">
-        <v>0.999310929138672</v>
+        <v>0.999011676937982</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9995064474966994</v>
+        <v>0.9998225767793232</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9969739019488011</v>
+        <v>0.999920927404131</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9980626549792947</v>
+        <v>0.9999038303222488</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0002465980120576307</v>
+        <v>3.087839508075349e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0006432174023345827</v>
+        <v>0.0009225561960253192</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0001452524969752383</v>
+        <v>6.769715198793652e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>0.001392277969335047</v>
+        <v>0.0001162877272429795</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0007687643504677487</v>
+        <v>9.199243961545802e-05</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0007943807991285398</v>
+        <v>0.0004622327405285454</v>
       </c>
       <c r="M22" t="n">
-        <v>0.01570343949769065</v>
+        <v>0.005556833188134542</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000253610309353</v>
+        <v>1.000031756457659</v>
       </c>
       <c r="O22" t="n">
-        <v>0.01637196742770845</v>
+        <v>0.005793399081183903</v>
       </c>
       <c r="P22" t="n">
-        <v>114.6155020573422</v>
+        <v>118.7709076138637</v>
       </c>
       <c r="Q22" t="n">
-        <v>174.340417475884</v>
+        <v>178.4958230324056</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_32_1_3</t>
+          <t>model_32_1_23</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9997159395030703</v>
+        <v>0.9999664655015073</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9993069415169057</v>
+        <v>0.999009831837901</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9993384518279324</v>
+        <v>0.9998187659805213</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9974563454669367</v>
+        <v>0.9999189557743481</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9982800426194567</v>
+        <v>0.9999015546736943</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0002651580050691627</v>
+        <v>3.130298234859966e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0006469396722171056</v>
+        <v>0.0009242785159603569</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0001946936206778586</v>
+        <v>6.91511906684175e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>0.001170310448658503</v>
+        <v>0.000119187294961759</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0006825020346681806</v>
+        <v>9.416924281508823e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>0.001286158624105858</v>
+        <v>0.0004545984764442217</v>
       </c>
       <c r="M23" t="n">
-        <v>0.01628367296002848</v>
+        <v>0.005594906822155277</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000272698077053</v>
+        <v>1.000032193118553</v>
       </c>
       <c r="O23" t="n">
-        <v>0.01697690262978685</v>
+        <v>0.00583309358862819</v>
       </c>
       <c r="P23" t="n">
-        <v>114.4703693282356</v>
+        <v>118.7435943645088</v>
       </c>
       <c r="Q23" t="n">
-        <v>174.1952847467774</v>
+        <v>178.4685097830506</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_32_1_2</t>
+          <t>model_32_1_24</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9997106406757452</v>
+        <v>0.9999660185849318</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9992970161397197</v>
+        <v>0.9990081349484858</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9993255696634458</v>
+        <v>0.9998152443797403</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9975350375432225</v>
+        <v>0.999917157588267</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9983208857900135</v>
+        <v>0.9998994703309122</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0002701042277854805</v>
+        <v>3.172015935444902e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0006562045761465764</v>
+        <v>0.0009258624877445611</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0001984848415623947</v>
+        <v>7.049488368900899e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>0.001134104997836964</v>
+        <v>0.0001218317885467473</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0006662949196996793</v>
+        <v>9.616304982374427e-05</v>
       </c>
       <c r="L24" t="n">
-        <v>0.001346341972634809</v>
+        <v>0.000447677192953824</v>
       </c>
       <c r="M24" t="n">
-        <v>0.01643484796964914</v>
+        <v>0.005632065283219737</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000277784951284</v>
+        <v>1.000032622158465</v>
       </c>
       <c r="O24" t="n">
-        <v>0.01713451347254248</v>
+        <v>0.005871833962308781</v>
       </c>
       <c r="P24" t="n">
-        <v>114.4334052892415</v>
+        <v>118.7171162748512</v>
       </c>
       <c r="Q24" t="n">
-        <v>174.1583207077833</v>
+        <v>178.442031693393</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9997041693922052</v>
+        <v>0.9998613023401547</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9992835344934248</v>
+        <v>0.9990049469065987</v>
       </c>
       <c r="D25" t="n">
-        <v>0.999314780842728</v>
+        <v>0.9996418870385054</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9976247063986602</v>
+        <v>0.9999714787625115</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9983688688153332</v>
+        <v>0.9999066537511524</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0002761448869135668</v>
+        <v>0.0001294681773419542</v>
       </c>
       <c r="H25" t="n">
-        <v>0.000668789101186952</v>
+        <v>0.0009288383849073658</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0002016599913959069</v>
+        <v>0.0001366406690773834</v>
       </c>
       <c r="J25" t="n">
-        <v>0.001092849238820171</v>
+        <v>4.194461872981062e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0006472546151080388</v>
+        <v>8.929164952245177e-05</v>
       </c>
       <c r="L25" t="n">
-        <v>0.001417214346045484</v>
+        <v>0.001269263020223772</v>
       </c>
       <c r="M25" t="n">
-        <v>0.01661760773738407</v>
+        <v>0.01137840838351103</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000283997383483</v>
+        <v>1.000133149753452</v>
       </c>
       <c r="O25" t="n">
-        <v>0.01732505370195475</v>
+        <v>0.01186281078494955</v>
       </c>
       <c r="P25" t="n">
-        <v>114.3891697548023</v>
+        <v>115.9041508836672</v>
       </c>
       <c r="Q25" t="n">
-        <v>174.1140851733441</v>
+        <v>175.629066302209</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9996957575083145</v>
+        <v>0.9998358079332739</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9992659927915957</v>
+        <v>0.9989913622761986</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9993052032081892</v>
+        <v>0.999571805499167</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9977198079708757</v>
+        <v>0.9999691618851555</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9984204509970515</v>
+        <v>0.9998908943186087</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0002839970112864802</v>
+        <v>0.0001532660870900398</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0006851635098526891</v>
+        <v>0.0009415190410895192</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0002044786891485539</v>
+        <v>0.0001633808026519933</v>
       </c>
       <c r="J26" t="n">
-        <v>0.001049093940213032</v>
+        <v>4.535192310695351e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0006267861172408138</v>
+        <v>0.0001043665533855812</v>
       </c>
       <c r="L26" t="n">
-        <v>0.001504579294822559</v>
+        <v>0.001381792333529108</v>
       </c>
       <c r="M26" t="n">
-        <v>0.01685221087235975</v>
+        <v>0.01238006813753623</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000292072792018</v>
+        <v>1.000157624384057</v>
       </c>
       <c r="O26" t="n">
-        <v>0.01756964437808179</v>
+        <v>0.01290711326842514</v>
       </c>
       <c r="P26" t="n">
-        <v>114.3330936869952</v>
+        <v>115.5666700316043</v>
       </c>
       <c r="Q26" t="n">
-        <v>174.058009105537</v>
+        <v>175.2915854501461</v>
       </c>
     </row>
   </sheetData>
